--- a/biology/Médecine/Lifecycles__A_Story_of_AIDS_in_Malawi/Lifecycles__A_Story_of_AIDS_in_Malawi.xlsx
+++ b/biology/Médecine/Lifecycles__A_Story_of_AIDS_in_Malawi/Lifecycles__A_Story_of_AIDS_in_Malawi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lifecycles: A Story of AIDS in Malawi est un film documentaire canadien réalisé par Sierra Bellows et Doug Karr, sorti en 2003. Il est consacré à l'épidémie de sida au Malawi.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est un documentaire d'une heure tourné en huit mois au Malawi. Il donne une perspective détaillée sur la vie quotidienne des personnes atteintes du HIV et du sida dans ce pays. 
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Lifecycles: A Story of AIDS in Malawi
 Réalisation : Sierra Bellows, Doug Karr
